--- a/Business Audit/2022 Jul - 2023 Jun/Q4 Apr - Jun/Everyday Offset Apr - Jun 2023.xlsx
+++ b/Business Audit/2022 Jul - 2023 Jun/Q4 Apr - Jun/Everyday Offset Apr - Jun 2023.xlsx
@@ -741,9 +741,9 @@
       <c r="C4" s="7" t="n">
         <v>5000</v>
       </c>
-      <c r="D4" s="7" t="n"/>
-      <c r="E4" s="7" t="n"/>
-      <c r="F4" s="7" t="n"/>
+      <c r="D4" s="7" t="inlineStr"/>
+      <c r="E4" s="7" t="inlineStr"/>
+      <c r="F4" s="7" t="inlineStr"/>
       <c r="G4" s="7">
         <f>SUM(C4:F4)</f>
         <v/>
@@ -767,9 +767,9 @@
       <c r="C5" s="7" t="n">
         <v>10000</v>
       </c>
-      <c r="D5" s="7" t="n"/>
-      <c r="E5" s="7" t="n"/>
-      <c r="F5" s="7" t="n"/>
+      <c r="D5" s="7" t="inlineStr"/>
+      <c r="E5" s="7" t="inlineStr"/>
+      <c r="F5" s="7" t="inlineStr"/>
       <c r="G5" s="7">
         <f>SUM(C5:F5)</f>
         <v/>
@@ -793,9 +793,9 @@
       <c r="C6" s="7" t="n">
         <v>104.8</v>
       </c>
-      <c r="D6" s="7" t="n"/>
-      <c r="E6" s="7" t="n"/>
-      <c r="F6" s="7" t="n"/>
+      <c r="D6" s="7" t="inlineStr"/>
+      <c r="E6" s="7" t="inlineStr"/>
+      <c r="F6" s="7" t="inlineStr"/>
       <c r="G6" s="7">
         <f>SUM(C6:F6)</f>
         <v/>
@@ -819,9 +819,9 @@
       <c r="C7" s="7" t="n">
         <v>68.8</v>
       </c>
-      <c r="D7" s="7" t="n"/>
-      <c r="E7" s="7" t="n"/>
-      <c r="F7" s="7" t="n"/>
+      <c r="D7" s="7" t="inlineStr"/>
+      <c r="E7" s="7" t="inlineStr"/>
+      <c r="F7" s="7" t="inlineStr"/>
       <c r="G7" s="7">
         <f>SUM(C7:F7)</f>
         <v/>
@@ -16844,10 +16844,10 @@
       <c r="C4" s="7" t="n">
         <v>4000</v>
       </c>
-      <c r="D4" s="7" t="n"/>
-      <c r="E4" s="7" t="n"/>
-      <c r="F4" s="7" t="n"/>
-      <c r="G4" s="7" t="n"/>
+      <c r="D4" s="7" t="inlineStr"/>
+      <c r="E4" s="7" t="inlineStr"/>
+      <c r="F4" s="7" t="inlineStr"/>
+      <c r="G4" s="7" t="inlineStr"/>
       <c r="H4" s="7">
         <f>SUM(C4:G4)</f>
         <v/>
@@ -16871,10 +16871,10 @@
       <c r="C5" s="7" t="n">
         <v>2096</v>
       </c>
-      <c r="D5" s="7" t="n"/>
-      <c r="E5" s="7" t="n"/>
-      <c r="F5" s="7" t="n"/>
-      <c r="G5" s="7" t="n"/>
+      <c r="D5" s="7" t="inlineStr"/>
+      <c r="E5" s="7" t="inlineStr"/>
+      <c r="F5" s="7" t="inlineStr"/>
+      <c r="G5" s="7" t="inlineStr"/>
       <c r="H5" s="7">
         <f>SUM(C5:G5)</f>
         <v/>
@@ -16894,10 +16894,10 @@
       <c r="C6" s="7" t="n">
         <v>8000</v>
       </c>
-      <c r="D6" s="7" t="n"/>
-      <c r="E6" s="7" t="n"/>
-      <c r="F6" s="7" t="n"/>
-      <c r="G6" s="7" t="n"/>
+      <c r="D6" s="7" t="inlineStr"/>
+      <c r="E6" s="7" t="inlineStr"/>
+      <c r="F6" s="7" t="inlineStr"/>
+      <c r="G6" s="7" t="inlineStr"/>
       <c r="H6" s="7">
         <f>SUM(C6:G6)</f>
         <v/>
@@ -16921,10 +16921,10 @@
       <c r="C7" s="7" t="n">
         <v>282.8</v>
       </c>
-      <c r="D7" s="7" t="n"/>
-      <c r="E7" s="7" t="n"/>
-      <c r="F7" s="7" t="n"/>
-      <c r="G7" s="7" t="n"/>
+      <c r="D7" s="7" t="inlineStr"/>
+      <c r="E7" s="7" t="inlineStr"/>
+      <c r="F7" s="7" t="inlineStr"/>
+      <c r="G7" s="7" t="inlineStr"/>
       <c r="H7" s="7">
         <f>SUM(C7:G7)</f>
         <v/>
@@ -16948,10 +16948,10 @@
       <c r="C8" s="7" t="n">
         <v>158</v>
       </c>
-      <c r="D8" s="7" t="n"/>
-      <c r="E8" s="7" t="n"/>
-      <c r="F8" s="7" t="n"/>
-      <c r="G8" s="7" t="n"/>
+      <c r="D8" s="7" t="inlineStr"/>
+      <c r="E8" s="7" t="inlineStr"/>
+      <c r="F8" s="7" t="inlineStr"/>
+      <c r="G8" s="7" t="inlineStr"/>
       <c r="H8" s="7">
         <f>SUM(C8:G8)</f>
         <v/>
@@ -16975,10 +16975,10 @@
       <c r="C9" s="7" t="n">
         <v>200</v>
       </c>
-      <c r="D9" s="7" t="n"/>
-      <c r="E9" s="7" t="n"/>
-      <c r="F9" s="7" t="n"/>
-      <c r="G9" s="7" t="n"/>
+      <c r="D9" s="7" t="inlineStr"/>
+      <c r="E9" s="7" t="inlineStr"/>
+      <c r="F9" s="7" t="inlineStr"/>
+      <c r="G9" s="7" t="inlineStr"/>
       <c r="H9" s="7">
         <f>SUM(C9:G9)</f>
         <v/>
@@ -17002,10 +17002,10 @@
       <c r="C10" s="7" t="n">
         <v>150</v>
       </c>
-      <c r="D10" s="7" t="n"/>
-      <c r="E10" s="7" t="n"/>
-      <c r="F10" s="7" t="n"/>
-      <c r="G10" s="7" t="n"/>
+      <c r="D10" s="7" t="inlineStr"/>
+      <c r="E10" s="7" t="inlineStr"/>
+      <c r="F10" s="7" t="inlineStr"/>
+      <c r="G10" s="7" t="inlineStr"/>
       <c r="H10" s="7">
         <f>SUM(C10:G10)</f>
         <v/>
@@ -17025,10 +17025,10 @@
       <c r="C11" s="7" t="n">
         <v>20</v>
       </c>
-      <c r="D11" s="7" t="n"/>
-      <c r="E11" s="7" t="n"/>
-      <c r="F11" s="7" t="n"/>
-      <c r="G11" s="7" t="n"/>
+      <c r="D11" s="7" t="inlineStr"/>
+      <c r="E11" s="7" t="inlineStr"/>
+      <c r="F11" s="7" t="inlineStr"/>
+      <c r="G11" s="7" t="inlineStr"/>
       <c r="H11" s="7">
         <f>SUM(C11:G11)</f>
         <v/>
@@ -17048,10 +17048,10 @@
       <c r="C12" s="7" t="n">
         <v>20</v>
       </c>
-      <c r="D12" s="7" t="n"/>
-      <c r="E12" s="7" t="n"/>
-      <c r="F12" s="7" t="n"/>
-      <c r="G12" s="7" t="n"/>
+      <c r="D12" s="7" t="inlineStr"/>
+      <c r="E12" s="7" t="inlineStr"/>
+      <c r="F12" s="7" t="inlineStr"/>
+      <c r="G12" s="7" t="inlineStr"/>
       <c r="H12" s="7">
         <f>SUM(C12:G12)</f>
         <v/>
@@ -17071,10 +17071,10 @@
       <c r="C13" s="7" t="n">
         <v>100</v>
       </c>
-      <c r="D13" s="7" t="n"/>
-      <c r="E13" s="7" t="n"/>
-      <c r="F13" s="7" t="n"/>
-      <c r="G13" s="7" t="n"/>
+      <c r="D13" s="7" t="inlineStr"/>
+      <c r="E13" s="7" t="inlineStr"/>
+      <c r="F13" s="7" t="inlineStr"/>
+      <c r="G13" s="7" t="inlineStr"/>
       <c r="H13" s="7">
         <f>SUM(C13:G13)</f>
         <v/>
@@ -17098,10 +17098,10 @@
       <c r="C14" s="7" t="n">
         <v>50</v>
       </c>
-      <c r="D14" s="7" t="n"/>
-      <c r="E14" s="7" t="n"/>
-      <c r="F14" s="7" t="n"/>
-      <c r="G14" s="7" t="n"/>
+      <c r="D14" s="7" t="inlineStr"/>
+      <c r="E14" s="7" t="inlineStr"/>
+      <c r="F14" s="7" t="inlineStr"/>
+      <c r="G14" s="7" t="inlineStr"/>
       <c r="H14" s="7">
         <f>SUM(C14:G14)</f>
         <v/>
@@ -17125,10 +17125,10 @@
       <c r="C15" s="7" t="n">
         <v>4</v>
       </c>
-      <c r="D15" s="7" t="n"/>
-      <c r="E15" s="7" t="n"/>
-      <c r="F15" s="7" t="n"/>
-      <c r="G15" s="7" t="n"/>
+      <c r="D15" s="7" t="inlineStr"/>
+      <c r="E15" s="7" t="inlineStr"/>
+      <c r="F15" s="7" t="inlineStr"/>
+      <c r="G15" s="7" t="inlineStr"/>
       <c r="H15" s="7">
         <f>SUM(C15:G15)</f>
         <v/>
@@ -17152,10 +17152,10 @@
       <c r="C16" s="7" t="n">
         <v>50</v>
       </c>
-      <c r="D16" s="7" t="n"/>
-      <c r="E16" s="7" t="n"/>
-      <c r="F16" s="7" t="n"/>
-      <c r="G16" s="7" t="n"/>
+      <c r="D16" s="7" t="inlineStr"/>
+      <c r="E16" s="7" t="inlineStr"/>
+      <c r="F16" s="7" t="inlineStr"/>
+      <c r="G16" s="7" t="inlineStr"/>
       <c r="H16" s="7">
         <f>SUM(C16:G16)</f>
         <v/>

--- a/Business Audit/2022 Jul - 2023 Jun/Q4 Apr - Jun/Everyday Offset Apr - Jun 2023.xlsx
+++ b/Business Audit/2022 Jul - 2023 Jun/Q4 Apr - Jun/Everyday Offset Apr - Jun 2023.xlsx
@@ -744,9 +744,8 @@
       <c r="D4" s="7" t="inlineStr"/>
       <c r="E4" s="7" t="inlineStr"/>
       <c r="F4" s="7" t="inlineStr"/>
-      <c r="G4" s="7">
-        <f>SUM(C4:F4)</f>
-        <v/>
+      <c r="G4" s="7" t="n">
+        <v>5000</v>
       </c>
       <c r="H4" s="7">
         <f>SUM(G4:G4)</f>
@@ -770,9 +769,8 @@
       <c r="D5" s="7" t="inlineStr"/>
       <c r="E5" s="7" t="inlineStr"/>
       <c r="F5" s="7" t="inlineStr"/>
-      <c r="G5" s="7">
-        <f>SUM(C5:F5)</f>
-        <v/>
+      <c r="G5" s="7" t="n">
+        <v>10000</v>
       </c>
       <c r="H5" s="7">
         <f>SUM(G4:G5)</f>
@@ -796,9 +794,8 @@
       <c r="D6" s="7" t="inlineStr"/>
       <c r="E6" s="7" t="inlineStr"/>
       <c r="F6" s="7" t="inlineStr"/>
-      <c r="G6" s="7">
-        <f>SUM(C6:F6)</f>
-        <v/>
+      <c r="G6" s="7" t="n">
+        <v>104.8</v>
       </c>
       <c r="H6" s="7">
         <f>SUM(G4:G6)</f>
@@ -822,9 +819,8 @@
       <c r="D7" s="7" t="inlineStr"/>
       <c r="E7" s="7" t="inlineStr"/>
       <c r="F7" s="7" t="inlineStr"/>
-      <c r="G7" s="7">
-        <f>SUM(C7:F7)</f>
-        <v/>
+      <c r="G7" s="7" t="n">
+        <v>68.8</v>
       </c>
       <c r="H7" s="7">
         <f>SUM(G4:G7)</f>
@@ -16848,9 +16844,8 @@
       <c r="E4" s="7" t="inlineStr"/>
       <c r="F4" s="7" t="inlineStr"/>
       <c r="G4" s="7" t="inlineStr"/>
-      <c r="H4" s="7">
-        <f>SUM(C4:G4)</f>
-        <v/>
+      <c r="H4" s="7" t="n">
+        <v>4000</v>
       </c>
       <c r="I4" s="7">
         <f>SUM(H4:H4)</f>
@@ -16875,9 +16870,8 @@
       <c r="E5" s="7" t="inlineStr"/>
       <c r="F5" s="7" t="inlineStr"/>
       <c r="G5" s="7" t="inlineStr"/>
-      <c r="H5" s="7">
-        <f>SUM(C5:G5)</f>
-        <v/>
+      <c r="H5" s="7" t="n">
+        <v>2096</v>
       </c>
       <c r="I5" s="7">
         <f>SUM(H4:H5)</f>
@@ -16898,9 +16892,8 @@
       <c r="E6" s="7" t="inlineStr"/>
       <c r="F6" s="7" t="inlineStr"/>
       <c r="G6" s="7" t="inlineStr"/>
-      <c r="H6" s="7">
-        <f>SUM(C6:G6)</f>
-        <v/>
+      <c r="H6" s="7" t="n">
+        <v>8000</v>
       </c>
       <c r="I6" s="7">
         <f>SUM(H4:H6)</f>
@@ -16925,9 +16918,8 @@
       <c r="E7" s="7" t="inlineStr"/>
       <c r="F7" s="7" t="inlineStr"/>
       <c r="G7" s="7" t="inlineStr"/>
-      <c r="H7" s="7">
-        <f>SUM(C7:G7)</f>
-        <v/>
+      <c r="H7" s="7" t="n">
+        <v>282.8</v>
       </c>
       <c r="I7" s="7">
         <f>SUM(H4:H7)</f>
@@ -16952,9 +16944,8 @@
       <c r="E8" s="7" t="inlineStr"/>
       <c r="F8" s="7" t="inlineStr"/>
       <c r="G8" s="7" t="inlineStr"/>
-      <c r="H8" s="7">
-        <f>SUM(C8:G8)</f>
-        <v/>
+      <c r="H8" s="7" t="n">
+        <v>158</v>
       </c>
       <c r="I8" s="7">
         <f>SUM(H4:H8)</f>
@@ -16979,9 +16970,8 @@
       <c r="E9" s="7" t="inlineStr"/>
       <c r="F9" s="7" t="inlineStr"/>
       <c r="G9" s="7" t="inlineStr"/>
-      <c r="H9" s="7">
-        <f>SUM(C9:G9)</f>
-        <v/>
+      <c r="H9" s="7" t="n">
+        <v>200</v>
       </c>
       <c r="I9" s="7">
         <f>SUM(H4:H9)</f>
@@ -17006,9 +16996,8 @@
       <c r="E10" s="7" t="inlineStr"/>
       <c r="F10" s="7" t="inlineStr"/>
       <c r="G10" s="7" t="inlineStr"/>
-      <c r="H10" s="7">
-        <f>SUM(C10:G10)</f>
-        <v/>
+      <c r="H10" s="7" t="n">
+        <v>150</v>
       </c>
       <c r="I10" s="7">
         <f>SUM(H4:H10)</f>
@@ -17029,9 +17018,8 @@
       <c r="E11" s="7" t="inlineStr"/>
       <c r="F11" s="7" t="inlineStr"/>
       <c r="G11" s="7" t="inlineStr"/>
-      <c r="H11" s="7">
-        <f>SUM(C11:G11)</f>
-        <v/>
+      <c r="H11" s="7" t="n">
+        <v>20</v>
       </c>
       <c r="I11" s="7">
         <f>SUM(H4:H11)</f>
@@ -17052,9 +17040,8 @@
       <c r="E12" s="7" t="inlineStr"/>
       <c r="F12" s="7" t="inlineStr"/>
       <c r="G12" s="7" t="inlineStr"/>
-      <c r="H12" s="7">
-        <f>SUM(C12:G12)</f>
-        <v/>
+      <c r="H12" s="7" t="n">
+        <v>20</v>
       </c>
       <c r="I12" s="7">
         <f>SUM(H4:H12)</f>
@@ -17075,9 +17062,8 @@
       <c r="E13" s="7" t="inlineStr"/>
       <c r="F13" s="7" t="inlineStr"/>
       <c r="G13" s="7" t="inlineStr"/>
-      <c r="H13" s="7">
-        <f>SUM(C13:G13)</f>
-        <v/>
+      <c r="H13" s="7" t="n">
+        <v>100</v>
       </c>
       <c r="I13" s="7">
         <f>SUM(H4:H13)</f>
@@ -17102,9 +17088,8 @@
       <c r="E14" s="7" t="inlineStr"/>
       <c r="F14" s="7" t="inlineStr"/>
       <c r="G14" s="7" t="inlineStr"/>
-      <c r="H14" s="7">
-        <f>SUM(C14:G14)</f>
-        <v/>
+      <c r="H14" s="7" t="n">
+        <v>50</v>
       </c>
       <c r="I14" s="7">
         <f>SUM(H4:H14)</f>
@@ -17129,9 +17114,8 @@
       <c r="E15" s="7" t="inlineStr"/>
       <c r="F15" s="7" t="inlineStr"/>
       <c r="G15" s="7" t="inlineStr"/>
-      <c r="H15" s="7">
-        <f>SUM(C15:G15)</f>
-        <v/>
+      <c r="H15" s="7" t="n">
+        <v>4</v>
       </c>
       <c r="I15" s="7">
         <f>SUM(H4:H15)</f>
@@ -17156,9 +17140,8 @@
       <c r="E16" s="7" t="inlineStr"/>
       <c r="F16" s="7" t="inlineStr"/>
       <c r="G16" s="7" t="inlineStr"/>
-      <c r="H16" s="7">
-        <f>SUM(C16:G16)</f>
-        <v/>
+      <c r="H16" s="7" t="n">
+        <v>50</v>
       </c>
       <c r="I16" s="7">
         <f>SUM(H4:H16)</f>

--- a/Business Audit/2022 Jul - 2023 Jun/Q4 Apr - Jun/Everyday Offset Apr - Jun 2023.xlsx
+++ b/Business Audit/2022 Jul - 2023 Jun/Q4 Apr - Jun/Everyday Offset Apr - Jun 2023.xlsx
@@ -16879,7 +16879,11 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="6" t="inlineStr"/>
+      <c r="A6" s="6" t="inlineStr">
+        <is>
+          <t>03/04/2023</t>
+        </is>
+      </c>
       <c r="B6" s="6" t="inlineStr">
         <is>
           <t>Transfer to xx9950 CommBank app Qi Qiong</t>
@@ -17005,7 +17009,11 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="6" t="inlineStr"/>
+      <c r="A11" s="6" t="inlineStr">
+        <is>
+          <t>14/05/2023</t>
+        </is>
+      </c>
       <c r="B11" s="6" t="inlineStr">
         <is>
           <t>Transfer to xx9950 CommBank app Qi Qiong</t>
@@ -17027,7 +17035,11 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="6" t="inlineStr"/>
+      <c r="A12" s="6" t="inlineStr">
+        <is>
+          <t>14/05/2023</t>
+        </is>
+      </c>
       <c r="B12" s="6" t="inlineStr">
         <is>
           <t>Transfer to xx9950 CommBank app Qi Qiong</t>
@@ -17049,7 +17061,11 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="6" t="inlineStr"/>
+      <c r="A13" s="6" t="inlineStr">
+        <is>
+          <t>14/05/2023</t>
+        </is>
+      </c>
       <c r="B13" s="6" t="inlineStr">
         <is>
           <t>Transfer to xx9950 CommBank app Qi Qiong</t>
